--- a/cfg/excel/lang_cfg.xlsx
+++ b/cfg/excel/lang_cfg.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CDE6B-2F35-4AE9-8627-15905F8586FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66CA970-5CD2-43C3-BE71-99010C2AACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +275,194 @@
   </si>
   <si>
     <t>CRT效果模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent_years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} hours,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent to {0} days,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}小时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于{0}天，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏并非人生，但是我已经玩了：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Games are not life, but I've been playing for:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_roll_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_sort_quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_sort_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_sort_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按主观游戏评级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按游戏类型排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按游戏时长排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random games</t>
+  </si>
+  <si>
+    <t>Sort by subjective game ratings</t>
+  </si>
+  <si>
+    <t>Sort by game genre</t>
+  </si>
+  <si>
+    <t>Sort by game duration</t>
+  </si>
+  <si>
+    <t>approximately {0} years.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于{0}年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Previous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originnal image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This progress bar indicates how much of the year has passed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This progress bar indicates how much of the month has passed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This progress bar indicates how much of the day has passed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_day_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_year_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_month_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个进度条显示了今年已经过去了多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个进度条显示了本月已经过去了多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个进度条显示了今天已经过去了多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_refresh_tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the countdown ends, all progress bars will be refreshed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时结束后，所有的进度条都将被刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,18 +486,50 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -307,8 +538,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,58 +822,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -651,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -662,7 +904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -673,7 +915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -684,151 +926,316 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>

--- a/cfg/excel/lang_cfg.xlsx
+++ b/cfg/excel/lang_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66CA970-5CD2-43C3-BE71-99010C2AACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7CF75A-AF77-4161-9D46-886365B62D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,6 +459,197 @@
   </si>
   <si>
     <t>倒计时结束后，所有的进度条都将被刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思い出のエマノン</t>
+  </si>
+  <si>
+    <t>年の進行状況</t>
+  </si>
+  <si>
+    <t>月の進行状況</t>
+  </si>
+  <si>
+    <t>日の進行状況</t>
+  </si>
+  <si>
+    <t>この進捗バーは今年がどれだけ経過したかを示しています</t>
+  </si>
+  <si>
+    <t>この進捗バーは今月がどれだけ経過したかを示しています</t>
+  </si>
+  <si>
+    <t>この進捗バーは今日がどれだけ経過したかを示しています</t>
+  </si>
+  <si>
+    <t>更新まであと {0} 分 {1} 秒</t>
+  </si>
+  <si>
+    <t>カウントダウンが終了したら、すべての進捗バーが更新されます</t>
+  </si>
+  <si>
+    <t>ログインを歓迎します</t>
+  </si>
+  <si>
+    <t>あなたの言語を選択してください：</t>
+  </si>
+  <si>
+    <t>確認する</t>
+  </si>
+  <si>
+    <t>進捗バー</t>
+  </si>
+  <si>
+    <t>記事</t>
+  </si>
+  <si>
+    <t>ゲーム</t>
+  </si>
+  <si>
+    <t>ギャラリー</t>
+  </si>
+  <si>
+    <t>について</t>
+  </si>
+  <si>
+    <t>前回更新：{0}</t>
+  </si>
+  <si>
+    <t>シェルトンによるサイト作成</t>
+  </si>
+  <si>
+    <t>クライによるアートワーク</t>
+  </si>
+  <si>
+    <t>CRT 効果シミュレーション</t>
+  </si>
+  <si>
+    <t>{0} 時間、</t>
+  </si>
+  <si>
+    <t>{0} 日に相当し、</t>
+  </si>
+  <si>
+    <t>{0} 年に相当します。</t>
+  </si>
+  <si>
+    <t>ゲームは人生ではありませんが、私はすでにプレイしています：</t>
+  </si>
+  <si>
+    <t>ランダムゲーム</t>
+  </si>
+  <si>
+    <t>主観的なゲーム評価で並べ替える</t>
+  </si>
+  <si>
+    <t>ゲームジャンルで並べ替える</t>
+  </si>
+  <si>
+    <t>ゲームのプレイ時間で並べ替える</t>
+  </si>
+  <si>
+    <t>前のページ</t>
+  </si>
+  <si>
+    <t>次のページ</t>
+  </si>
+  <si>
+    <t>オリジナル画像</t>
+  </si>
+  <si>
+    <t>thanks_project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>嗨！我是Shelton Chu，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一位来自中国的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏策划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">与艺术家。
+想要更深入地了解我，最好的方式就是浏览这个网站。
+若要开始探索，你可以看看顶部的导航栏，希望你在此浏览愉快！
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢以下这些项目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! I'm Shelton Chu, a game designer and artist from China.
+The best way to get to know me better is to browse through this website.
+To start your exploration, you can take a look at the navigation bar at the top. I hope you have a pleasant browsing experience here!
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanks to the following projects:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> こんにちは！私はシェルトン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">チューです。中国出身のゲームデザイナーとアーティストです。
+私をもっと深く知るには、このウェブサイトを見て回るのが一番いい方法です。
+探検を始めるには、トップのナビゲーションバーを見てみてください。ここで楽しいブラウジング体験をしていただければ幸いです！
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下のプロジェクトに感謝します：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +671,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -500,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -523,25 +731,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -822,17 +1027,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="59.75" customWidth="1"/>
+    <col min="3" max="3" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -850,8 +1056,8 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,8 +1070,8 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>61</v>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -878,7 +1084,7 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -892,6 +1098,9 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -903,6 +1112,9 @@
       <c r="C6" t="s">
         <v>47</v>
       </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -914,6 +1126,9 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -925,38 +1140,50 @@
       <c r="C8" t="s">
         <v>49</v>
       </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,16 +1196,22 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
+      <c r="D13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,6 +1224,9 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1002,6 +1238,9 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1013,8 +1252,11 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1024,8 +1266,11 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1035,8 +1280,11 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1046,8 +1294,11 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1057,8 +1308,11 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1068,8 +1322,11 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1079,8 +1336,11 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1090,8 +1350,11 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1101,8 +1364,11 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1112,130 +1378,194 @@
       <c r="C25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>94</v>
       </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>

--- a/cfg/excel/lang_cfg.xlsx
+++ b/cfg/excel/lang_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7CF75A-AF77-4161-9D46-886365B62D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CEFA0-D9D6-4D67-AEEC-5910719631F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="3975" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,45 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>思い出のエマノン</t>
-  </si>
-  <si>
-    <t>年の進行状況</t>
-  </si>
-  <si>
-    <t>月の進行状況</t>
-  </si>
-  <si>
-    <t>日の進行状況</t>
-  </si>
-  <si>
-    <t>この進捗バーは今年がどれだけ経過したかを示しています</t>
-  </si>
-  <si>
-    <t>この進捗バーは今月がどれだけ経過したかを示しています</t>
-  </si>
-  <si>
-    <t>この進捗バーは今日がどれだけ経過したかを示しています</t>
-  </si>
-  <si>
-    <t>更新まであと {0} 分 {1} 秒</t>
-  </si>
-  <si>
-    <t>カウントダウンが終了したら、すべての進捗バーが更新されます</t>
-  </si>
-  <si>
-    <t>ログインを歓迎します</t>
-  </si>
-  <si>
-    <t>あなたの言語を選択してください：</t>
-  </si>
-  <si>
-    <t>確認する</t>
-  </si>
-  <si>
-    <t>進捗バー</t>
-  </si>
-  <si>
     <t>記事</t>
   </si>
   <si>
@@ -518,12 +479,6 @@
   </si>
   <si>
     <t>前回更新：{0}</t>
-  </si>
-  <si>
-    <t>シェルトンによるサイト作成</t>
-  </si>
-  <si>
-    <t>クライによるアートワーク</t>
   </si>
   <si>
     <t>CRT 効果シミュレーション</t>
@@ -650,6 +605,54 @@
   </si>
   <si>
     <t>以下のプロジェクトに感謝します：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年の進行状況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月の進行状況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日の進行状況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この進捗バーは今年がどれだけ経過したかを示しています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この進捗バーは今月がどれだけ経過したかを示しています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この進捗バーは今日がどれだけ経過したかを示しています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新まであと {0} 分 {1} 秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カウントダウンが終了したら、すべての進捗バーが更新されます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログインを歓迎します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あなたの言語を選択してください：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進捗バー</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1102,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1127,7 +1130,7 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1144,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1155,7 +1158,7 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1169,7 +1172,7 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1183,7 +1186,7 @@
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1197,7 +1200,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1211,7 +1214,7 @@
         <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1225,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1239,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1253,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1267,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1281,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1295,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,7 +1312,7 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,7 +1326,7 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1337,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1351,7 +1354,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1365,7 +1368,7 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1379,7 +1382,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1393,7 +1396,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,7 +1410,7 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1421,7 +1424,7 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,7 +1438,7 @@
         <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1449,7 +1452,7 @@
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,7 +1466,7 @@
         <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1477,7 +1480,7 @@
         <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,7 +1494,7 @@
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1505,7 +1508,7 @@
         <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1519,7 +1522,7 @@
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1533,7 +1536,7 @@
         <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="87.75" x14ac:dyDescent="0.2">
@@ -1541,27 +1544,27 @@
         <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">

--- a/cfg/excel/lang_cfg.xlsx
+++ b/cfg/excel/lang_cfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Emanon\cfg\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CEFA0-D9D6-4D67-AEEC-5910719631F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C499339F-7D24-48B3-B707-610B14E2C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="3975" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +651,82 @@
   </si>
   <si>
     <t>進捗バー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近更新
+版本号：13.0.0
+发布日期：2025-04-01
+核心更新：
+多语言系统增强
+• 新增日语语言支持（801bda8）
+• 扩展基础语言框架（7ec452e）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recent Update
+Version Number: 13.0.0
+Release Date: April 1, 2025
+Core Updates:
+Enhancement of the Multilingual System
+• Added Japanese language support (801bda8)
+• Extended the basic language framework (7ec452e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">最近のアップデート
+バージョン番号：13.0.0
+リリース日：2025 年 4 月 1 日
+核心アップデート：
+多言語システムの強化
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・日本語の言語サポートを新たに追加しました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（801bda8）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・基本的な言語フレームワークを拡張しました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（7ec452e）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,8 +1641,22 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" ht="108.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>

--- a/cfg/excel/lang_cfg.xlsx
+++ b/cfg/excel/lang_cfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C499339F-7D24-48B3-B707-610B14E2C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA68070-026A-4590-8C65-F4CD735ED498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>[TABLE_BEGIN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +727,22 @@
       </rPr>
       <t>（7ec452e）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,482 +1197,538 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="108.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>147</v>
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="108.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>

--- a/cfg/excel/lang_cfg.xlsx
+++ b/cfg/excel/lang_cfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Emanon\cfg\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA68070-026A-4590-8C65-F4CD735ED498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1EEB2D-3C00-4DAC-BB11-3A7FF6C1036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Created by Shelton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Artistic by Cry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
   </si>
   <si>
     <t>CRT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由 Shelton 进行站点创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,6 +735,14 @@
   </si>
   <si>
     <t>about_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 Shelton 进行站点创建与艺术化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created&amp;Artistic by Shelton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1206,12 +1206,12 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1220,12 +1220,12 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1234,12 +1234,12 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1248,119 +1248,119 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1416,7 +1416,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,13 +1494,13 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,223 +1508,223 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
         <v>92</v>
       </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
-      </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="87.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="108.75" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
